--- a/TestData/Swag_LabDDF_Data.xlsx
+++ b/TestData/Swag_LabDDF_Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>standard_user</t>
   </si>
@@ -31,19 +31,49 @@
   </si>
   <si>
     <t xml:space="preserve">Username and password do not match </t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF132322"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,13 +93,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,19 +432,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.99</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.saucedemo.com/inventory.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
